--- a/data/hotels_by_city/Dallas/Dallas_shard_196.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_196.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Nonagzone</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>legendaryrob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r549034272-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>I used points to rent a room here.the desk clerk was new,but helpful-one note-the  office is a tad hard to find.The room I rented seemed spacious,safe &amp; secure-Granted I didn't spend the night as my train was available after I left my event at the arena.-but I saw nothing that would stop me from paying actual money to rent a room here in the future.W that said a couple of things-:an earlier poster griped about a triple digit cab ride to here from the airport.as it happens, this hotel is literally 8 blocks away from the *farmers branch* DART station.(which connects to BOTH airports,incidentally).So.yeah,you're an idiot for not asking the airport concierge about ground transportation options in the d/fw metroplex-.DART runs 5am-2am most lines.d/fw to hotel: take orange line to bachman station,switch to green go to farmers branch station.walk (or rent a VBIKE at the station) the remaining 8 blocks.-left at valley view,under the underpass, on your right-done and done.there's asidewalk even.one last note: even tho this property's MAILING address is in dallas, the hotel itself is i n a (recently annexed unincorporated section) of the town of FARMERS BRANCH.without this key information,many people make navigational error$ such as the above.i can't speak to the wifi issues, as I didn't spend the night,but the tv service was good.More</t>
   </si>
   <si>
+    <t>Steven D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r511840806-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Taurus S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r494425320-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -240,6 +252,9 @@
     <t>I had come here on a business trip, preparing to take up a new job in Dallas. When I booked this hotel, I had expected to be able to work from the room using reliable internet connection, I was horribly disappointed. I payed for a week at this hotel only to find out that at about 10-10:30 PM, the internet seemingly completely shuts down temporarily. This was not intentional, but a result of the faulty wireless connection of the hotel. I have been able to complete no work as I've been here, and as we speak, I must cut off this review in fear that if I type more than 600 characters, their router will explo-More</t>
   </si>
   <si>
+    <t>Heather513</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r468283276-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Georgia Alexand... B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r256926222-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>I with my husband booked a room there because we couldn't find one in another hotel around Dallas Airport... Our flight from Dallas to Aspen was canceled. The taxi driver took 130$ from the airport to this hotel !!! Then, after check in we pick up our room... The air inside had the same temperature as outside. The manager played with us saying that this is the best room !!! We slept dressed with jackets. I get a cold. The services were very bad, the room and the bathroom were not real clean. The receptionist did not want to call for a taxi for us. We had to call with our EU mobile numbers  for a taxi to take us from the hotel.This was my second bad experience as traveler in USA !More</t>
   </si>
   <si>
+    <t>connie l</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r170338371-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -300,6 +321,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Myron T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r167857778-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -313,6 +337,9 @@
   </si>
   <si>
     <t>At first I was like no way we staying here. Walk in the young men made us feel right at home. Insured me that we will not run into no problem here. The room was clean and plenty of towels. The property was quite the whole night. I would like to say thanks to the young men working and we will be back to stay.</t>
+  </si>
+  <si>
+    <t>ItaliaGirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r16475924-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
@@ -838,43 +865,47 @@
       <c r="A2" t="n">
         <v>10962</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>132085</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -888,50 +919,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10962</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>132086</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -949,50 +984,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10962</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>32369</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -1012,50 +1051,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10962</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>132087</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1075,50 +1118,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10962</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>132088</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1132,41 +1179,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10962</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>132089</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -1195,50 +1246,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10962</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132090</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P8" t="n">
         <v>4</v>
@@ -1262,50 +1317,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10962</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>132091</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="J9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="K9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1329,50 +1388,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10962</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132092</v>
+      </c>
+      <c r="C10" t="s">
+        <v>107</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="J10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="K10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="L10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1396,7 +1459,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_196.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_196.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="113">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,39 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Nonagzone</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r586291918-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>109277</t>
+  </si>
+  <si>
+    <t>586291918</t>
+  </si>
+  <si>
+    <t>06/09/2018</t>
+  </si>
+  <si>
+    <t>A nice little place</t>
+  </si>
+  <si>
+    <t>Came here from the road and the hotel room was nicely appointed with microwave and refrigerator. The shower had adequate water pressure. Pet friendly and hot meal. the only problem we had is we asked housekeeping not to make up the room but leave clean towels. She did not do that but the front desk did.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r568762189-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>109277</t>
-  </si>
-  <si>
     <t>568762189</t>
   </si>
   <si>
@@ -180,9 +198,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>legendaryrob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r549034272-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -207,9 +222,6 @@
     <t>I used points to rent a room here.the desk clerk was new,but helpful-one note-the  office is a tad hard to find.The room I rented seemed spacious,safe &amp; secure-Granted I didn't spend the night as my train was available after I left my event at the arena.-but I saw nothing that would stop me from paying actual money to rent a room here in the future.W that said a couple of things-:an earlier poster griped about a triple digit cab ride to here from the airport.as it happens, this hotel is literally 8 blocks away from the *farmers branch* DART station.(which connects to BOTH airports,incidentally).So.yeah,you're an idiot for not asking the airport concierge about ground transportation options in the d/fw metroplex-.DART runs 5am-2am most lines.d/fw to hotel: take orange line to bachman station,switch to green go to farmers branch station.walk (or rent a VBIKE at the station) the remaining 8 blocks.-left at valley view,under the underpass, on your right-done and done.there's asidewalk even.one last note: even tho this property's MAILING address is in dallas, the hotel itself is i n a (recently annexed unincorporated section) of the town of FARMERS BRANCH.without this key information,many people make navigational error$ such as the above.i can't speak to the wifi issues, as I didn't spend the night,but the tv service was good.More</t>
   </si>
   <si>
-    <t>Steven D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r511840806-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -228,9 +240,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>Taurus S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r494425320-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -252,9 +261,6 @@
     <t>I had come here on a business trip, preparing to take up a new job in Dallas. When I booked this hotel, I had expected to be able to work from the room using reliable internet connection, I was horribly disappointed. I payed for a week at this hotel only to find out that at about 10-10:30 PM, the internet seemingly completely shuts down temporarily. This was not intentional, but a result of the faulty wireless connection of the hotel. I have been able to complete no work as I've been here, and as we speak, I must cut off this review in fear that if I type more than 600 characters, their router will explo-More</t>
   </si>
   <si>
-    <t>Heather513</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r468283276-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -276,9 +282,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Georgia Alexand... B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r256926222-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -297,9 +300,6 @@
     <t>I with my husband booked a room there because we couldn't find one in another hotel around Dallas Airport... Our flight from Dallas to Aspen was canceled. The taxi driver took 130$ from the airport to this hotel !!! Then, after check in we pick up our room... The air inside had the same temperature as outside. The manager played with us saying that this is the best room !!! We slept dressed with jackets. I get a cold. The services were very bad, the room and the bathroom were not real clean. The receptionist did not want to call for a taxi for us. We had to call with our EU mobile numbers  for a taxi to take us from the hotel.This was my second bad experience as traveler in USA !More</t>
   </si>
   <si>
-    <t>connie l</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r170338371-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -321,9 +321,6 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
-    <t>Myron T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r167857778-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
   </si>
   <si>
@@ -337,9 +334,6 @@
   </si>
   <si>
     <t>At first I was like no way we staying here. Walk in the young men made us feel right at home. Insured me that we will not run into no problem here. The room was clean and plenty of towels. The property was quite the whole night. I would like to say thanks to the young men working and we will be back to stay.</t>
-  </si>
-  <si>
-    <t>ItaliaGirl</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d109277-r16475924-Econo_Lodge_Dallas_Airport_North-Dallas_Texas.html</t>
@@ -865,182 +859,168 @@
       <c r="A2" t="n">
         <v>10962</v>
       </c>
-      <c r="B2" t="n">
-        <v>132085</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>4</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>10962</v>
       </c>
-      <c r="B3" t="n">
-        <v>132086</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
-      </c>
-      <c r="K3" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>4</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>10962</v>
       </c>
-      <c r="B4" t="n">
-        <v>32369</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>4</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
         <v>4</v>
@@ -1051,58 +1031,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>10962</v>
       </c>
-      <c r="B5" t="n">
-        <v>132087</v>
-      </c>
-      <c r="C5" t="s">
-        <v>70</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
@@ -1110,7 +1086,7 @@
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1118,198 +1094,182 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>10962</v>
       </c>
-      <c r="B6" t="n">
-        <v>132088</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>75</v>
+      </c>
+      <c r="J6" t="s">
+        <v>76</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>79</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L6" t="s">
-        <v>83</v>
-      </c>
-      <c r="M6" t="n">
+      <c r="O6" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
         <v>3</v>
       </c>
-      <c r="N6" t="s">
-        <v>84</v>
-      </c>
-      <c r="O6" t="s">
-        <v>85</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>10962</v>
       </c>
-      <c r="B7" t="n">
-        <v>132089</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>10962</v>
       </c>
-      <c r="B8" t="n">
-        <v>132090</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="L8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>99</v>
-      </c>
-      <c r="O8" t="s">
-        <v>100</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
       <c r="P8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1317,48 +1277,44 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>10962</v>
       </c>
-      <c r="B9" t="n">
-        <v>132091</v>
-      </c>
-      <c r="C9" t="s">
-        <v>101</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="K9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="L9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
         <v>99</v>
@@ -1373,10 +1329,10 @@
         <v>4</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -1388,70 +1344,66 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>10962</v>
       </c>
-      <c r="B10" t="n">
-        <v>132092</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1459,7 +1411,74 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10962</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>59</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
